--- a/data_voor_swing/aggregatietabellen/ggw7_elzantw.xlsx
+++ b/data_voor_swing/aggregatietabellen/ggw7_elzantw.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1100,96 +1100,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="0" outlineLevel="0">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>11044A0</t>
-        </is>
-      </c>
-      <c r="B72" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" s="0" outlineLevel="0">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>11044A1</t>
-        </is>
-      </c>
-      <c r="B73" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="0" outlineLevel="0">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>11044A2</t>
-        </is>
-      </c>
-      <c r="B74" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" s="0" outlineLevel="0">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>11044B0</t>
-        </is>
-      </c>
-      <c r="B75" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="0" outlineLevel="0">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>11044B1</t>
-        </is>
-      </c>
-      <c r="B76" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" s="0" outlineLevel="0">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>11052A0</t>
-        </is>
-      </c>
-      <c r="B77" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="0" outlineLevel="0">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>11052A1</t>
-        </is>
-      </c>
-      <c r="B78" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" s="0" outlineLevel="0">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>11052A2</t>
-        </is>
-      </c>
-      <c r="B79" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" s="0" outlineLevel="0">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>11052A3</t>
-        </is>
-      </c>
-      <c r="B80" s="23">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_voor_swing/aggregatietabellen/ggw7_elzantw.xlsx
+++ b/data_voor_swing/aggregatietabellen/ggw7_elzantw.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1033,37 +1033,37 @@
     <row r="65" spans="1:2" s="0" outlineLevel="0">
       <c r="A65" t="inlineStr">
         <is>
-          <t>11040A0</t>
+          <t>1100701</t>
         </is>
       </c>
       <c r="B65" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" s="0" outlineLevel="0">
       <c r="A66" t="inlineStr">
         <is>
-          <t>11040A1</t>
+          <t>1100702</t>
         </is>
       </c>
       <c r="B66" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="0" outlineLevel="0">
       <c r="A67" t="inlineStr">
         <is>
-          <t>11040A2</t>
+          <t>1100703</t>
         </is>
       </c>
       <c r="B67" s="23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="0" outlineLevel="0">
       <c r="A68" t="inlineStr">
         <is>
-          <t>11040A3</t>
+          <t>11040A0</t>
         </is>
       </c>
       <c r="B68" s="23">
@@ -1073,7 +1073,7 @@
     <row r="69" spans="1:2" s="0" outlineLevel="0">
       <c r="A69" t="inlineStr">
         <is>
-          <t>11040A4</t>
+          <t>11040A1</t>
         </is>
       </c>
       <c r="B69" s="23">
@@ -1083,7 +1083,7 @@
     <row r="70" spans="1:2" s="0" outlineLevel="0">
       <c r="A70" t="inlineStr">
         <is>
-          <t>11040A5</t>
+          <t>11040A2</t>
         </is>
       </c>
       <c r="B70" s="23">
@@ -1093,11 +1093,111 @@
     <row r="71" spans="1:2" s="0" outlineLevel="0">
       <c r="A71" t="inlineStr">
         <is>
+          <t>11040A3</t>
+        </is>
+      </c>
+      <c r="B71" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="0" outlineLevel="0">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>11040A4</t>
+        </is>
+      </c>
+      <c r="B72" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="0" outlineLevel="0">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>11040A5</t>
+        </is>
+      </c>
+      <c r="B73" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="0" outlineLevel="0">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>11040A6</t>
         </is>
       </c>
-      <c r="B71" s="23">
-        <v>4</v>
+      <c r="B74" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="0" outlineLevel="0">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1104401</t>
+        </is>
+      </c>
+      <c r="B75" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="0" outlineLevel="0">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1104402</t>
+        </is>
+      </c>
+      <c r="B76" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="0" outlineLevel="0">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1104403</t>
+        </is>
+      </c>
+      <c r="B77" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="0" outlineLevel="0">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1105201</t>
+        </is>
+      </c>
+      <c r="B78" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="0" outlineLevel="0">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1105202</t>
+        </is>
+      </c>
+      <c r="B79" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" s="0" outlineLevel="0">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1105203</t>
+        </is>
+      </c>
+      <c r="B80" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" s="0" outlineLevel="0">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1105204</t>
+        </is>
+      </c>
+      <c r="B81" s="23">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
